--- a/data/panelapp/au/Cerebral Palsy.xlsx
+++ b/data/panelapp/au/Cerebral Palsy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159513</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159525</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159528</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159531</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159533</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159536</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159539</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159541</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159544</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159546</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159549</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159551</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159554</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159557</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159559</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159562</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159564</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159567</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159569</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159572</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159574</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159577</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159579</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159582</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159584</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159587</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159589</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159592</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159594</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159597</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159599</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159602</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159605</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159607</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159610</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159612</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159615</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159617</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159619</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159622</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159625</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1504,6 +1714,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159627</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1529,6 +1744,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159630</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1554,6 +1774,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159632</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1579,6 +1804,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159634</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1604,6 +1834,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159637</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1629,6 +1864,11 @@
           <t>Cerebral Palsy</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159640</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1636,12 +1876,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SCN1A</t>
+          <t>RNASEH2A</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>sodium voltage-gated channel alpha subunit 1</t>
+          <t>ribonuclease H2 subunit A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1652,6 +1892,11 @@
       <c r="E49" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159642</t>
         </is>
       </c>
     </row>
@@ -1661,12 +1906,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SCN8A</t>
+          <t>RNASEH2B</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>sodium voltage-gated channel alpha subunit 8</t>
+          <t>ribonuclease H2 subunit B</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1677,6 +1922,11 @@
       <c r="E50" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159645</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1936,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SLC2A1</t>
+          <t>RNASEH2C</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>solute carrier family 2 member 1</t>
+          <t>ribonuclease H2 subunit C</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1702,6 +1952,11 @@
       <c r="E51" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159647</t>
         </is>
       </c>
     </row>
@@ -1711,12 +1966,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SPAST</t>
+          <t>SAMHD1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>spastin</t>
+          <t>SAM and HD domain containing deoxynucleoside triphosphate triphosphohydrolase 1</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1727,6 +1982,11 @@
       <c r="E52" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159650</t>
         </is>
       </c>
     </row>
@@ -1736,12 +1996,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SPG11</t>
+          <t>SCN1A</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SPG11, spatacsin vesicle trafficking associated</t>
+          <t>sodium voltage-gated channel alpha subunit 1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1752,6 +2012,11 @@
       <c r="E53" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159652</t>
         </is>
       </c>
     </row>
@@ -1761,12 +2026,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TNR</t>
+          <t>SCN8A</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>tenascin R</t>
+          <t>sodium voltage-gated channel alpha subunit 8</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1777,6 +2042,11 @@
       <c r="E54" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159655</t>
         </is>
       </c>
     </row>
@@ -1786,12 +2056,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TUBA1A</t>
+          <t>SLC2A1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>tubulin alpha 1a</t>
+          <t>solute carrier family 2 member 1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1802,6 +2072,11 @@
       <c r="E55" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159657</t>
         </is>
       </c>
     </row>
@@ -1811,12 +2086,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>VPS13D</t>
+          <t>SPAST</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>vacuolar protein sorting 13 homolog D</t>
+          <t>spastin</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1827,6 +2102,11 @@
       <c r="E56" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159660</t>
         </is>
       </c>
     </row>
@@ -1836,12 +2116,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ZC4H2</t>
+          <t>SPG11</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>zinc finger C4H2-type containing</t>
+          <t>SPG11, spatacsin vesicle trafficking associated</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1852,6 +2132,11 @@
       <c r="E57" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159662</t>
         </is>
       </c>
     </row>
@@ -1861,22 +2146,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AGAP1</t>
+          <t>SPTAN1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ArfGAP with GTPase domain, ankyrin repeat and PH domain 1</t>
+          <t>spectrin alpha, non-erythrocytic 1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159665</t>
         </is>
       </c>
     </row>
@@ -1886,22 +2176,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ALK</t>
+          <t>TAF1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ALK receptor tyrosine kinase</t>
+          <t>TATA-box binding protein associated factor 1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159667</t>
         </is>
       </c>
     </row>
@@ -1911,22 +2206,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CACNA1A</t>
+          <t>TNR</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>calcium voltage-gated channel subunit alpha1 A</t>
+          <t>tenascin R</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159670</t>
         </is>
       </c>
     </row>
@@ -1936,22 +2236,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>COL4A1</t>
+          <t>TREX1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>collagen type IV alpha 1 chain</t>
+          <t>three prime repair exonuclease 1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159672</t>
         </is>
       </c>
     </row>
@@ -1961,22 +2266,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DHX32</t>
+          <t>TUBA1A</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DEAH-box helicase 32 (putative)</t>
+          <t>tubulin alpha 1a</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159675</t>
         </is>
       </c>
     </row>
@@ -1986,22 +2296,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>GSX2</t>
+          <t>VPS13D</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>GS homeobox 2</t>
+          <t>vacuolar protein sorting 13 homolog D</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159677</t>
         </is>
       </c>
     </row>
@@ -2011,22 +2326,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>HPDL</t>
+          <t>ZC4H2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>4-hydroxyphenylpyruvate dioxygenase like</t>
+          <t>zinc finger C4H2-type containing</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159680</t>
         </is>
       </c>
     </row>
@@ -2036,22 +2356,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NALCN</t>
+          <t>ZSWIM6</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>sodium leak channel, non-selective</t>
+          <t>zinc finger SWIM-type containing 6</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159682</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2386,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NDUFA12</t>
+          <t>AGAP1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase subunit A12</t>
+          <t>ArfGAP with GTPase domain, ankyrin repeat and PH domain 1</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2077,6 +2402,11 @@
       <c r="E66" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159686</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2416,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PANK2</t>
+          <t>ALK</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>pantothenate kinase 2</t>
+          <t>ALK receptor tyrosine kinase</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2102,6 +2432,11 @@
       <c r="E67" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159689</t>
         </is>
       </c>
     </row>
@@ -2111,12 +2446,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PROC</t>
+          <t>CACNA1A</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>protein C, inactivator of coagulation factors Va and VIIIa</t>
+          <t>calcium voltage-gated channel subunit alpha1 A</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2127,6 +2462,11 @@
       <c r="E68" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159691</t>
         </is>
       </c>
     </row>
@@ -2136,12 +2476,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>RHOB</t>
+          <t>COL4A1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ras homolog family member B</t>
+          <t>collagen type IV alpha 1 chain</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2152,6 +2492,11 @@
       <c r="E69" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159694</t>
         </is>
       </c>
     </row>
@@ -2161,22 +2506,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ASXL3</t>
+          <t>DHX32</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>additional sex combs like 3, transcriptional regulator</t>
+          <t>DEAH-box helicase 32 (putative)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159696</t>
         </is>
       </c>
     </row>
@@ -2186,22 +2536,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ATP1A3</t>
+          <t>GSX2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ATPase Na+/K+ transporting subunit alpha 3</t>
+          <t>GS homeobox 2</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159699</t>
         </is>
       </c>
     </row>
@@ -2211,22 +2566,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BCL11A</t>
+          <t>HPDL</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>B-cell CLL/lymphoma 11A</t>
+          <t>4-hydroxyphenylpyruvate dioxygenase like</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159701</t>
         </is>
       </c>
     </row>
@@ -2236,22 +2596,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>GAD1</t>
+          <t>NALCN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>glutamate decarboxylase 1</t>
+          <t>sodium leak channel, non-selective</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159704</t>
         </is>
       </c>
     </row>
@@ -2261,22 +2626,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>HPCA</t>
+          <t>NDUFA12</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>hippocalcin</t>
+          <t>NADH:ubiquinone oxidoreductase subunit A12</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159706</t>
         </is>
       </c>
     </row>
@@ -2286,22 +2656,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>IQSEC2</t>
+          <t>PANK2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>IQ motif and Sec7 domain 2</t>
+          <t>pantothenate kinase 2</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159709</t>
         </is>
       </c>
     </row>
@@ -2311,22 +2686,27 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>KANK1</t>
+          <t>PROC</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>KN motif and ankyrin repeat domains 1</t>
+          <t>protein C, inactivator of coagulation factors Va and VIIIa</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159711</t>
         </is>
       </c>
     </row>
@@ -2336,22 +2716,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>KDM7A</t>
+          <t>RHOB</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>lysine demethylase 7A</t>
+          <t>ras homolog family member B</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159714</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2746,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>KMT2B</t>
+          <t>ASXL3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>lysine methyltransferase 2B</t>
+          <t>additional sex combs like 3, transcriptional regulator</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2377,6 +2762,11 @@
       <c r="E78" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159718</t>
         </is>
       </c>
     </row>
@@ -2386,12 +2776,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MAOB</t>
+          <t>ATP1A3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>monoamine oxidase B</t>
+          <t>ATPase Na+/K+ transporting subunit alpha 3</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2402,6 +2792,11 @@
       <c r="E79" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159721</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2806,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NEXMIF</t>
+          <t>BCL11A</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>neurite extension and migration factor</t>
+          <t>B-cell CLL/lymphoma 11A</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2427,6 +2822,11 @@
       <c r="E80" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159723</t>
         </is>
       </c>
     </row>
@@ -2436,12 +2836,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PAK3</t>
+          <t>GAD1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>p21 (RAC1) activated kinase 3</t>
+          <t>glutamate decarboxylase 1</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2452,6 +2852,11 @@
       <c r="E81" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159726</t>
         </is>
       </c>
     </row>
@@ -2461,12 +2866,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PCDH19</t>
+          <t>HPCA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>protocadherin 19</t>
+          <t>hippocalcin</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2477,6 +2882,11 @@
       <c r="E82" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159728</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2896,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SHANK3</t>
+          <t>IQSEC2</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SH3 and multiple ankyrin repeat domains 3</t>
+          <t>IQ motif and Sec7 domain 2</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2502,6 +2912,11 @@
       <c r="E83" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159731</t>
         </is>
       </c>
     </row>
@@ -2511,12 +2926,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SMARCB1</t>
+          <t>KANK1</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SWI/SNF related, matrix associated, actin dependent regulator of chromatin, subfamily b, member 1</t>
+          <t>KN motif and ankyrin repeat domains 1</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2527,6 +2942,11 @@
       <c r="E84" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159733</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2956,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TENM1</t>
+          <t>KDM7A</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>teneurin transmembrane protein 1</t>
+          <t>lysine demethylase 7A</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2552,6 +2972,11 @@
       <c r="E85" t="inlineStr">
         <is>
           <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159736</t>
         </is>
       </c>
     </row>
@@ -2561,22 +2986,267 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>KMT2B</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>lysine methyltransferase 2B</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159738</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>MAOB</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>monoamine oxidase B</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159741</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
           <t>MFN2</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>mitofusin 2</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Cerebral Palsy</t>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159744</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>NEXMIF</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>neurite extension and migration factor</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159746</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>PAK3</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>p21 (RAC1) activated kinase 3</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159749</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>PCDH19</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>protocadherin 19</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159751</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>SHANK3</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>SH3 and multiple ankyrin repeat domains 3</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159754</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>SMARCB1</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>SWI/SNF related, matrix associated, actin dependent regulator of chromatin, subfamily b, member 1</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159756</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>TENM1</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>teneurin transmembrane protein 1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:24.159760</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/au/Cerebral Palsy.xlsx
+++ b/data/panelapp/au/Cerebral Palsy.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159513</t>
+          <t>2021-10-05 14:33:24.859704</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159525</t>
+          <t>2021-10-05 14:33:24.859710</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159528</t>
+          <t>2021-10-05 14:33:24.859712</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159531</t>
+          <t>2021-10-05 14:33:24.859714</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159533</t>
+          <t>2021-10-05 14:33:24.859716</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159536</t>
+          <t>2021-10-05 14:33:24.859718</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159539</t>
+          <t>2021-10-05 14:33:24.859720</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159541</t>
+          <t>2021-10-05 14:33:24.859722</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159544</t>
+          <t>2021-10-05 14:33:24.859724</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159546</t>
+          <t>2021-10-05 14:33:24.859726</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159549</t>
+          <t>2021-10-05 14:33:24.859728</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159551</t>
+          <t>2021-10-05 14:33:24.859730</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159554</t>
+          <t>2021-10-05 14:33:24.859732</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159557</t>
+          <t>2021-10-05 14:33:24.859734</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159559</t>
+          <t>2021-10-05 14:33:24.859736</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159562</t>
+          <t>2021-10-05 14:33:24.859738</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159564</t>
+          <t>2021-10-05 14:33:24.859740</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159567</t>
+          <t>2021-10-05 14:33:24.859742</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159569</t>
+          <t>2021-10-05 14:33:24.859744</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159572</t>
+          <t>2021-10-05 14:33:24.859745</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159574</t>
+          <t>2021-10-05 14:33:24.859747</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159577</t>
+          <t>2021-10-05 14:33:24.859749</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159579</t>
+          <t>2021-10-05 14:33:24.859751</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159582</t>
+          <t>2021-10-05 14:33:24.859753</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159584</t>
+          <t>2021-10-05 14:33:24.859755</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159587</t>
+          <t>2021-10-05 14:33:24.859757</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159589</t>
+          <t>2021-10-05 14:33:24.859759</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159592</t>
+          <t>2021-10-05 14:33:24.859761</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159594</t>
+          <t>2021-10-05 14:33:24.859762</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159597</t>
+          <t>2021-10-05 14:33:24.859764</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159599</t>
+          <t>2021-10-05 14:33:24.859766</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159602</t>
+          <t>2021-10-05 14:33:24.859768</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159605</t>
+          <t>2021-10-05 14:33:24.859770</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159607</t>
+          <t>2021-10-05 14:33:24.859772</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159610</t>
+          <t>2021-10-05 14:33:24.859774</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159612</t>
+          <t>2021-10-05 14:33:24.859776</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159615</t>
+          <t>2021-10-05 14:33:24.859778</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159617</t>
+          <t>2021-10-05 14:33:24.859780</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159619</t>
+          <t>2021-10-05 14:33:24.859782</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159622</t>
+          <t>2021-10-05 14:33:24.859783</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159625</t>
+          <t>2021-10-05 14:33:24.859786</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159627</t>
+          <t>2021-10-05 14:33:24.859787</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159630</t>
+          <t>2021-10-05 14:33:24.859789</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159632</t>
+          <t>2021-10-05 14:33:24.859791</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159634</t>
+          <t>2021-10-05 14:33:24.859793</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159637</t>
+          <t>2021-10-05 14:33:24.859795</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159640</t>
+          <t>2021-10-05 14:33:24.859797</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159642</t>
+          <t>2021-10-05 14:33:24.859799</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159645</t>
+          <t>2021-10-05 14:33:24.859801</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159647</t>
+          <t>2021-10-05 14:33:24.859802</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159650</t>
+          <t>2021-10-05 14:33:24.859804</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159652</t>
+          <t>2021-10-05 14:33:24.859806</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159655</t>
+          <t>2021-10-05 14:33:24.859808</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159657</t>
+          <t>2021-10-05 14:33:24.859810</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159660</t>
+          <t>2021-10-05 14:33:24.859812</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159662</t>
+          <t>2021-10-05 14:33:24.859814</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159665</t>
+          <t>2021-10-05 14:33:24.859816</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159667</t>
+          <t>2021-10-05 14:33:24.859818</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159670</t>
+          <t>2021-10-05 14:33:24.859820</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159672</t>
+          <t>2021-10-05 14:33:24.859822</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159675</t>
+          <t>2021-10-05 14:33:24.859824</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159677</t>
+          <t>2021-10-05 14:33:24.859826</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159680</t>
+          <t>2021-10-05 14:33:24.859828</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159682</t>
+          <t>2021-10-05 14:33:24.859830</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159686</t>
+          <t>2021-10-05 14:33:24.859833</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159689</t>
+          <t>2021-10-05 14:33:24.859835</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159691</t>
+          <t>2021-10-05 14:33:24.859837</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159694</t>
+          <t>2021-10-05 14:33:24.859839</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159696</t>
+          <t>2021-10-05 14:33:24.859841</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159699</t>
+          <t>2021-10-05 14:33:24.859843</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159701</t>
+          <t>2021-10-05 14:33:24.859845</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159704</t>
+          <t>2021-10-05 14:33:24.859847</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159706</t>
+          <t>2021-10-05 14:33:24.859849</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159709</t>
+          <t>2021-10-05 14:33:24.859851</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159711</t>
+          <t>2021-10-05 14:33:24.859852</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159714</t>
+          <t>2021-10-05 14:33:24.859854</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159718</t>
+          <t>2021-10-05 14:33:24.859858</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159721</t>
+          <t>2021-10-05 14:33:24.859860</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159723</t>
+          <t>2021-10-05 14:33:24.859862</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159726</t>
+          <t>2021-10-05 14:33:24.859865</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159728</t>
+          <t>2021-10-05 14:33:24.859867</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159731</t>
+          <t>2021-10-05 14:33:24.859869</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159733</t>
+          <t>2021-10-05 14:33:24.859871</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159736</t>
+          <t>2021-10-05 14:33:24.859873</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159738</t>
+          <t>2021-10-05 14:33:24.859875</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159741</t>
+          <t>2021-10-05 14:33:24.859877</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159744</t>
+          <t>2021-10-05 14:33:24.859879</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159746</t>
+          <t>2021-10-05 14:33:24.859881</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159749</t>
+          <t>2021-10-05 14:33:24.859883</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159751</t>
+          <t>2021-10-05 14:33:24.859885</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159754</t>
+          <t>2021-10-05 14:33:24.859887</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159756</t>
+          <t>2021-10-05 14:33:24.859889</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,91 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:24.159760</t>
+          <t>2021-10-05 14:33:24.859892</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>73</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.186</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-09-30T22:50:50.057312Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:33:24.857156</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.agha.umccr.org/api/v1/panels/73/?format=json</t>
         </is>
       </c>
     </row>
